--- a/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,37; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,69; 4,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>2,49; 7,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,0; 7,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,16; 5,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,33; 5,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,69; 4,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,18; 3,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,39; 2,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,47; 5,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0,6; 2,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,18; 1,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>4,03; 7,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,42; 7,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,7; 4,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,07; 3,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,42; 4,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,9; 5,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,4; 3,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,75; 2,11</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,3; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,62; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,04; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,86; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,12; 4,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>3,76; 9,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,76; 5,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,09; 6,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,92; 3,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,45; 5,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,67; 4,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,33; 4,56</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,81; 3,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,63; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,67; 3,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>1,69; 6,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,5; 6,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,01; 7,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,45; 6,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,14; 7,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,02; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,26; 5,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,89; 4,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,83; 6,05</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>1,99; 8,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>1,58; 6,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,47 +1299,47 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>6,27; 15,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>6,6; 14,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,93; 9,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,24; 5,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,87; 10,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,59; 9,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,47; 5,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,44; 3,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,72; 4,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,78; 4,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,75; 4,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,41; 4,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,82; 6,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>3,58; 9,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,67; 7,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>3,8; 7,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,61; 4,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,64; 6,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,21; 5,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>3,02; 5,46</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,62; 5,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,59; 2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,75; 2,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,28; 3,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,54; 5,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,24; 6,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,09; 5,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,25; 5,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,86; 5,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,14; 4,16</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,71; 3,34</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,33; 4,17</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,93; 5,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,69; 2,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,1; 1,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,61; 3,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,9; 8,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,41; 7,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,55; 5,42</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,63; 14,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,35; 6,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,88; 4,82</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,46; 3,02</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,87; 8,66</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,4; 3,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,65; 2,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,97; 1,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,56; 2,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,35; 5,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,11; 4,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,77; 6,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,54; 4,5</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,55; 4,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,23; 2,98</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,46; 4,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 7,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,39</t>
+          <t>2,06; 5,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,56; 4,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,02</t>
+          <t>1,07; 2,74</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,86</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,07</t>
+          <t>1,07; 3,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,11</t>
+          <t>0,72; 2,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,21%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,72</t>
+          <t>0,84; 3,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,59</t>
+          <t>3,04; 6,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,56</t>
+          <t>2,26; 4,43</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,4</t>
+          <t>1,76; 5,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,49</t>
+          <t>1,65; 6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,91</t>
+          <t>5,14; 10,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,38</t>
+          <t>2,17; 6,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 5,54</t>
+          <t>4,03; 7,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,05</t>
+          <t>2,3; 5,14</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,46</t>
+          <t>2,27; 5,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,22</t>
+          <t>1,46; 3,28</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,42</t>
+          <t>1,38; 4,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,83</t>
+          <t>3,77; 7,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,46</t>
+          <t>2,95; 5,34</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>3,95%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
           <t>3,05%</t>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,55</t>
+          <t>1,19; 3,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,34</t>
+          <t>1,51; 5,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,17</t>
+          <t>1,76; 3,85</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,66</t>
+          <t>0,75; 3,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,42</t>
+          <t>9,66; 14,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,66</t>
+          <t>3,69; 7,74</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,47</t>
+          <t>1,29; 2,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,39</t>
+          <t>4,16; 5,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 4,38</t>
+          <t>2,99; 3,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,61</t>
+          <t>1,32; 4,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,65</t>
+          <t>0,69; 4,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,02</t>
+          <t>0,69; 4,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 7,85</t>
+          <t>2,38; 7,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,44</t>
+          <t>1,86; 6,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,24</t>
+          <t>1,9; 7,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,15</t>
+          <t>1,97; 5,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,6</t>
+          <t>2,39; 5,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,51</t>
+          <t>1,6; 4,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,71</t>
+          <t>1,77; 4,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,74</t>
+          <t>0,99; 2,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,17</t>
+          <t>0,4; 2,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,18</t>
+          <t>1,46; 5,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,6</t>
+          <t>0,62; 2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,78</t>
+          <t>0,18; 1,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,94</t>
+          <t>3,92; 7,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,32</t>
+          <t>3,64; 7,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,84</t>
+          <t>1,67; 4,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,05</t>
+          <t>1,02; 3,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,61</t>
+          <t>2,42; 4,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,64</t>
+          <t>2,78; 5,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,24</t>
+          <t>1,36; 3,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,05</t>
+          <t>0,78; 2,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,97</t>
+          <t>0,3; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,33</t>
+          <t>0,62; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,99</t>
+          <t>1,19; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,62</t>
+          <t>0,91; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,42</t>
+          <t>1,12; 4,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,07</t>
+          <t>3,98; 9,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,97</t>
+          <t>1,72; 5,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,48</t>
+          <t>2,99; 6,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,07</t>
+          <t>0,97; 3,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,53</t>
+          <t>2,49; 5,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,24</t>
+          <t>1,71; 4,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,43</t>
+          <t>2,25; 4,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,99</t>
+          <t>0,8; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,85</t>
+          <t>1,72; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,53</t>
+          <t>0,55; 3,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,34</t>
+          <t>1,71; 6,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,53</t>
+          <t>2,49; 6,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,44</t>
+          <t>4,95; 10,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,66</t>
+          <t>2,41; 6,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,14</t>
+          <t>2,07; 6,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,59</t>
+          <t>1,96; 4,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,16</t>
+          <t>3,95; 7,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,6</t>
+          <t>1,78; 4,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,14</t>
+          <t>2,42; 5,39</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,44</t>
+          <t>1,88; 8,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,98</t>
+          <t>1,59; 7,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,54 +1300,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,27; 15,01</t>
+          <t>6,19; 15,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,6; 14,93</t>
+          <t>5,99; 14,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,84</t>
+          <t>2,99; 10,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,55</t>
+          <t>2,24; 5,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,44</t>
+          <t>4,83; 10,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,34</t>
+          <t>4,67; 9,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,12</t>
+          <t>1,63; 5,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,28</t>
+          <t>1,46; 3,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,27</t>
+          <t>1,0; 4,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,6</t>
+          <t>0,78; 4,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,36</t>
+          <t>0,77; 4,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,32</t>
+          <t>1,4; 4,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,46</t>
+          <t>1,79; 6,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,04</t>
+          <t>3,3; 9,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,77</t>
+          <t>2,85; 7,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,77</t>
+          <t>3,81; 7,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,46</t>
+          <t>1,84; 4,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,17</t>
+          <t>2,7; 6,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 5,51</t>
+          <t>2,11; 5,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,34</t>
+          <t>2,86; 5,24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,93</t>
+          <t>2,77; 5,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,55</t>
+          <t>0,6; 2,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,73</t>
+          <t>0,73; 2,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,4</t>
+          <t>1,3; 3,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 5,63</t>
+          <t>2,57; 5,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,77</t>
+          <t>3,21; 6,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,04</t>
+          <t>2,11; 5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,03</t>
+          <t>1,5; 4,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,19</t>
+          <t>3,01; 5,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,16</t>
+          <t>2,14; 4,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,34</t>
+          <t>1,64; 3,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,85</t>
+          <t>1,83; 3,9</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,82</t>
+          <t>2,99; 5,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,38</t>
+          <t>0,68; 2,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,48</t>
+          <t>0,11; 1,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,1</t>
+          <t>0,73; 3,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,75</t>
+          <t>5,04; 8,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,91</t>
+          <t>4,4; 7,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,42</t>
+          <t>2,52; 5,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,32</t>
+          <t>9,71; 14,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,81</t>
+          <t>4,43; 6,73</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,82</t>
+          <t>2,73; 4,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,02</t>
+          <t>1,42; 3,02</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,74</t>
+          <t>3,7; 7,78</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,52</t>
+          <t>2,35; 3,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,66</t>
+          <t>1,62; 2,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,77</t>
+          <t>1,01; 1,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,26</t>
+          <t>1,32; 2,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,35; 5,95</t>
+          <t>4,38; 5,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,68</t>
+          <t>5,11; 6,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,48</t>
+          <t>3,11; 4,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,16; 5,84</t>
+          <t>4,18; 5,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,5</t>
+          <t>3,54; 4,48</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,45</t>
+          <t>3,52; 4,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,98</t>
+          <t>2,23; 3,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,97</t>
+          <t>2,97; 3,92</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8146</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5833</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10349</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11343</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9518</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19808</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16182</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17228</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10278</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3607; 13452</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1993; 14115</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2022; 12325</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3886</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6202; 20535</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5204; 18987</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5476; 20734</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5708; 14910</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12737; 29204</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9135; 26973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10289; 27009</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5951; 15444</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5066</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6953</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3552</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28772</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26788</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15360</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9502</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33838</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41513</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22313</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13053</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1949; 11970</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7388; 28701</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3114; 13932</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>907; 9755</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19730; 40160</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19047; 40049</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8746; 25143</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5213; 15758</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24175; 46473</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28570; 56672</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13907; 32750</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7993; 21050</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7806</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20196</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11265</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11665</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25295</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18504</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21331</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>958; 9612</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2008; 10377</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3806; 13447</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2857; 11185</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3758; 14912</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13577; 32143</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5777; 19048</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10422; 23246</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6325; 19919</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16538; 36309</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11209; 28678</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14965; 29448</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7191</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12341</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6220</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15298</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28512</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16064</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18149</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22489</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40854</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22284</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28634</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2876; 14935</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6415; 21209</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2017; 12857</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5357; 19250</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9234; 24235</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19158; 39294</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9322; 25308</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9821; 28706</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14320; 32972</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>30071; 54474</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13491; 32654</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19030; 42469</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8869</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20918</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21697</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12730</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7617</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>29787</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29706</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12730</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8786</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3822; 16411</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3378; 16040</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3731</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12848; 32297</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13161; 31430</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6542; 22431</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4666; 11106</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19843; 43384</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20182; 41293</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6988; 22470</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5646; 12770</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5655</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5333</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6917</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16308</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13298</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14112</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15936</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>22577</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>18631</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>21029</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2721; 11574</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2145; 12619</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2014; 12298</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3769; 11256</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4967; 18039</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9212; 26206</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7778; 21580</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9793; 20228</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10074; 25666</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>14917; 33352</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>11339; 28579</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15086; 27588</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>25198</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9960</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13704</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24285</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>32889</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>23583</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>29142</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>49483</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>41340</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>33542</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>42846</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17032; 36395</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3955; 15643</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4808; 17708</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8125; 20861</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>16391; 35297</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22283; 46289</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14603; 34794</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>12778; 41563</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>37709; 64967</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>29039; 55642</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22102; 48184</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>27017; 57375</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>31309</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10603</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>18376</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>52510</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>49779</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>30915</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>82609</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>83819</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>60381</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>34522</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>100985</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>22242; 42930</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>5317; 19282</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>819; 11833</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6806; 29150</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>39500; 67022</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>36132; 65275</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>20818; 43729</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>69377; 102137</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>67558; 102650</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>43709; 76847</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>22807; 48408</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>60819; 127937</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>95292</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>71329</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>45195</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>60609</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>171532</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>206519</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>134558</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>186333</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>266824</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>277847</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>179753</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>246942</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>77076; 115878</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>55242; 91401</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>34225; 60827</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>45805; 79269</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>147850; 199364</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>181182; 235216</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>110223; 158235</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>152825; 215091</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>235279; 298426</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>245081; 315223</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>154896; 209063</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>211225; 278841</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>